--- a/File/游戏逻辑.xlsx
+++ b/File/游戏逻辑.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Safety\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\Project\Server\trunk\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176AC086-688C-4DD6-A391-D55E7EEF859A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F6C20E-3BBC-41E3-8225-39EDA685AD5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>游戏开始前</t>
   </si>
@@ -41,9 +41,6 @@
     <t>发移动包</t>
   </si>
   <si>
-    <t>C2SMove（x，z）</t>
-  </si>
-  <si>
     <t>初始化地图</t>
   </si>
   <si>
@@ -59,160 +56,183 @@
     <t>发攻击包</t>
   </si>
   <si>
+    <t>连接</t>
+  </si>
+  <si>
+    <t>接收攻击</t>
+  </si>
+  <si>
+    <t>生成clientId</t>
+  </si>
+  <si>
+    <t>发送攻击消息</t>
+  </si>
+  <si>
+    <t>发送clientId</t>
+  </si>
+  <si>
+    <t>接收攻击消息并表现</t>
+  </si>
+  <si>
+    <t>收取并存储clientId</t>
+  </si>
+  <si>
+    <t>S2CSendClientId（clientId）</t>
+  </si>
+  <si>
+    <t>攻击触发</t>
+  </si>
+  <si>
+    <t>选角色</t>
+  </si>
+  <si>
+    <t>C2SChooseChar（charType）</t>
+  </si>
+  <si>
+    <t>创建角色</t>
+  </si>
+  <si>
+    <t>发送charId</t>
+  </si>
+  <si>
+    <t>收取并存储charId</t>
+  </si>
+  <si>
+    <t>S2CSendCharId（charId）</t>
+  </si>
+  <si>
+    <t>接收破坏地形</t>
+  </si>
+  <si>
+    <t>所有人选完角色</t>
+  </si>
+  <si>
+    <t>接收人物伤害</t>
+  </si>
+  <si>
+    <t>S2CHPChange（charId，nowHP）</t>
+  </si>
+  <si>
+    <t>接收人物死亡</t>
+  </si>
+  <si>
+    <t>S2CDie（charId）</t>
+  </si>
+  <si>
+    <t>收取并存储所有人charId</t>
+  </si>
+  <si>
+    <t>S2CAllCharId（charId2CharType）</t>
+  </si>
+  <si>
+    <t>根据charId创建所有角色</t>
+  </si>
+  <si>
+    <t>选位置</t>
+  </si>
+  <si>
+    <t>C2SChooseLocation（x，z）</t>
+  </si>
+  <si>
+    <t>初始化人位置</t>
+  </si>
+  <si>
+    <t>所有人选完位置</t>
+  </si>
+  <si>
+    <t>收取并存储所有人位置</t>
+  </si>
+  <si>
+    <t>S2CAllLocation（allLocation）</t>
+  </si>
+  <si>
+    <t>n秒后游戏开始</t>
+  </si>
+  <si>
+    <t>实时发送位置</t>
+  </si>
+  <si>
+    <t>接收位置</t>
+  </si>
+  <si>
+    <t>S2CMove（allCharLocation）</t>
+  </si>
+  <si>
+    <t>0-1000</t>
+  </si>
+  <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>有血量的格子在另一张表存着隐藏的道具</t>
+  </si>
+  <si>
+    <t>1001-2000</t>
+  </si>
+  <si>
+    <t>角色Id</t>
+  </si>
+  <si>
+    <t>格子中站着人</t>
+  </si>
+  <si>
+    <t>2001-3000</t>
+  </si>
+  <si>
+    <t>道具Id</t>
+  </si>
+  <si>
+    <t>这表示丢在地上可见的道具</t>
+  </si>
+  <si>
+    <t>不可破坏</t>
+  </si>
+  <si>
+    <t>S2CCellChange（mapId，x，z，nowHp）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广播charId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广播位置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广播游戏开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收开始消息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2CGameStart（placeholder）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2SMove（x，z）（客户端控制移动速度吧，好调）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>C2SAttack（weaponId，locationX，locationZ）</t>
-  </si>
-  <si>
-    <t>连接</t>
-  </si>
-  <si>
-    <t>接收攻击</t>
-  </si>
-  <si>
-    <t>生成clientId</t>
-  </si>
-  <si>
-    <t>发送攻击消息</t>
-  </si>
-  <si>
-    <t>发送clientId</t>
-  </si>
-  <si>
-    <t>接收攻击消息并表现</t>
-  </si>
-  <si>
-    <t>S2CAttack（weaponId，locationX，locationZ）</t>
-  </si>
-  <si>
-    <t>收取并存储clientId</t>
-  </si>
-  <si>
-    <t>S2CSendClientId（clientId）</t>
-  </si>
-  <si>
-    <t>攻击触发</t>
-  </si>
-  <si>
-    <t>选角色</t>
-  </si>
-  <si>
-    <t>C2SChooseChar（charType）</t>
-  </si>
-  <si>
-    <t>发破坏地形</t>
-  </si>
-  <si>
-    <t>创建角色</t>
-  </si>
-  <si>
-    <t>发伤害到人</t>
-  </si>
-  <si>
-    <t>发送charId</t>
-  </si>
-  <si>
-    <t>发人物死亡</t>
-  </si>
-  <si>
-    <t>收取并存储charId</t>
-  </si>
-  <si>
-    <t>S2CSendCharId（charId）</t>
-  </si>
-  <si>
-    <t>接收破坏地形</t>
-  </si>
-  <si>
-    <t>所有人选完角色</t>
-  </si>
-  <si>
-    <t>接收人物伤害</t>
-  </si>
-  <si>
-    <t>S2CHPChange（charId，nowHP）</t>
-  </si>
-  <si>
-    <t>发送所有charId</t>
-  </si>
-  <si>
-    <t>接收人物死亡</t>
-  </si>
-  <si>
-    <t>S2CDie（charId）</t>
-  </si>
-  <si>
-    <t>收取并存储所有人charId</t>
-  </si>
-  <si>
-    <t>S2CAllCharId（charId2CharType）</t>
-  </si>
-  <si>
-    <t>根据charId创建所有角色</t>
-  </si>
-  <si>
-    <t>选位置</t>
-  </si>
-  <si>
-    <t>C2SChooseLocation（x，z）</t>
-  </si>
-  <si>
-    <t>初始化人位置</t>
-  </si>
-  <si>
-    <t>所有人选完位置</t>
-  </si>
-  <si>
-    <t>发送所有人位置</t>
-  </si>
-  <si>
-    <t>收取并存储所有人位置</t>
-  </si>
-  <si>
-    <t>S2CAllLocation（allLocation）</t>
-  </si>
-  <si>
-    <t>n秒后游戏开始</t>
-  </si>
-  <si>
-    <t>实时发送位置</t>
-  </si>
-  <si>
-    <t>接收位置</t>
-  </si>
-  <si>
-    <t>S2CMove（allCharLocation）</t>
-  </si>
-  <si>
-    <t>0-1000</t>
-  </si>
-  <si>
-    <t>血量</t>
-  </si>
-  <si>
-    <t>有血量的格子在另一张表存着隐藏的道具</t>
-  </si>
-  <si>
-    <t>1001-2000</t>
-  </si>
-  <si>
-    <t>角色Id</t>
-  </si>
-  <si>
-    <t>格子中站着人</t>
-  </si>
-  <si>
-    <t>2001-3000</t>
-  </si>
-  <si>
-    <t>道具Id</t>
-  </si>
-  <si>
-    <t>这表示丢在地上可见的道具</t>
-  </si>
-  <si>
-    <t>不可破坏</t>
-  </si>
-  <si>
-    <t>S2CCellChange（mapId，x，z，nowHp）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2CAttack（weaponId，x，z）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广播破坏地形</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广播伤害到人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广播人物死亡</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -547,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -561,7 +581,7 @@
     <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.44140625" customWidth="1"/>
     <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.77734375" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="33.6640625" bestFit="1" customWidth="1"/>
@@ -597,196 +617,209 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>8</v>
-      </c>
-      <c r="K4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>50</v>
+      <c r="D24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="2"/>
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -812,35 +845,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -848,7 +881,7 @@
         <v>9999</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/File/游戏逻辑.xlsx
+++ b/File/游戏逻辑.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\Project\Server\trunk\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F6C20E-3BBC-41E3-8225-39EDA685AD5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD8CE1D-4C05-421D-B103-B208EC9E38FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>游戏开始前</t>
   </si>
@@ -62,45 +62,21 @@
     <t>接收攻击</t>
   </si>
   <si>
-    <t>生成clientId</t>
-  </si>
-  <si>
     <t>发送攻击消息</t>
   </si>
   <si>
-    <t>发送clientId</t>
-  </si>
-  <si>
     <t>接收攻击消息并表现</t>
   </si>
   <si>
-    <t>收取并存储clientId</t>
-  </si>
-  <si>
-    <t>S2CSendClientId（clientId）</t>
-  </si>
-  <si>
     <t>攻击触发</t>
   </si>
   <si>
     <t>选角色</t>
   </si>
   <si>
-    <t>C2SChooseChar（charType）</t>
-  </si>
-  <si>
-    <t>创建角色</t>
-  </si>
-  <si>
     <t>发送charId</t>
   </si>
   <si>
-    <t>收取并存储charId</t>
-  </si>
-  <si>
-    <t>S2CSendCharId（charId）</t>
-  </si>
-  <si>
     <t>接收破坏地形</t>
   </si>
   <si>
@@ -110,24 +86,9 @@
     <t>接收人物伤害</t>
   </si>
   <si>
-    <t>S2CHPChange（charId，nowHP）</t>
-  </si>
-  <si>
     <t>接收人物死亡</t>
   </si>
   <si>
-    <t>S2CDie（charId）</t>
-  </si>
-  <si>
-    <t>收取并存储所有人charId</t>
-  </si>
-  <si>
-    <t>S2CAllCharId（charId2CharType）</t>
-  </si>
-  <si>
-    <t>根据charId创建所有角色</t>
-  </si>
-  <si>
     <t>选位置</t>
   </si>
   <si>
@@ -233,6 +194,54 @@
   </si>
   <si>
     <t>广播人物死亡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成clientId和playerId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送clientId和playerId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取并存储clientId和playerId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2CSendClientId（clientId，playerId）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2SChooseChar（charId）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2CSendCharId（playerId, charId）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取并存储playerId对应的charId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2CAllCharId（playerId2CharId）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2CHPChange（playerId，nowHP）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2CDie（playerId）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取并存储所有人playerId，charId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据playerId创建所有玩家</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -567,18 +576,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.44140625" customWidth="1"/>
     <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="51" bestFit="1" customWidth="1"/>
@@ -617,7 +626,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -639,7 +648,7 @@
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -652,174 +661,169 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" t="s">
         <v>13</v>
-      </c>
-      <c r="J7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>23</v>
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
       </c>
       <c r="J12" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
+      <c r="D13" t="s">
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>56</v>
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
+      <c r="D18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>57</v>
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
+      <c r="D22" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>58</v>
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" t="s">
-        <v>60</v>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -845,35 +849,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -881,7 +885,7 @@
         <v>9999</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/File/游戏逻辑.xlsx
+++ b/File/游戏逻辑.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\Project\Server\trunk\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD8CE1D-4C05-421D-B103-B208EC9E38FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E1411B-4D8F-4E20-B1B9-3A4225262CB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
   <si>
     <t>游戏开始前</t>
   </si>
@@ -242,6 +242,18 @@
   </si>
   <si>
     <t>根据playerId创建所有玩家</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>只剩一人，发送获胜playerId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2CSendWinner（playerId）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收获胜者playerid</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -578,21 +590,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.44140625" customWidth="1"/>
     <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="51" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.77734375" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -760,30 +772,39 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -791,17 +812,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -809,14 +830,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="D25" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>

--- a/File/游戏逻辑.xlsx
+++ b/File/游戏逻辑.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\Project\Server\trunk\File\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E1411B-4D8F-4E20-B1B9-3A4225262CB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="游戏步骤" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
   <si>
     <t>游戏开始前</t>
   </si>
@@ -41,6 +35,9 @@
     <t>发移动包</t>
   </si>
   <si>
+    <t>C2SMove（x，z）（客户端控制移动速度吧，好调）</t>
+  </si>
+  <si>
     <t>初始化地图</t>
   </si>
   <si>
@@ -56,51 +53,120 @@
     <t>发攻击包</t>
   </si>
   <si>
+    <t>C2SAttack（weaponId，locationX，locationZ）</t>
+  </si>
+  <si>
     <t>连接</t>
   </si>
   <si>
     <t>接收攻击</t>
   </si>
   <si>
+    <t>生成clientId和playerId</t>
+  </si>
+  <si>
     <t>发送攻击消息</t>
   </si>
   <si>
+    <t>发送clientId和playerId</t>
+  </si>
+  <si>
     <t>接收攻击消息并表现</t>
   </si>
   <si>
+    <t>S2CAttack（weaponId，x，z）</t>
+  </si>
+  <si>
+    <t>收取并存储clientId和playerId</t>
+  </si>
+  <si>
+    <t>S2CSendClientId（clientId，playerId）</t>
+  </si>
+  <si>
     <t>攻击触发</t>
   </si>
   <si>
     <t>选角色</t>
   </si>
   <si>
+    <t>C2SChooseChar（charId）</t>
+  </si>
+  <si>
+    <t>广播破坏地形</t>
+  </si>
+  <si>
     <t>发送charId</t>
   </si>
   <si>
+    <t>广播伤害到人</t>
+  </si>
+  <si>
+    <t>收取并存储playerId对应的charId</t>
+  </si>
+  <si>
+    <t>S2CSendCharId（playerId, charId）</t>
+  </si>
+  <si>
+    <t>广播人物死亡</t>
+  </si>
+  <si>
+    <t>所有人选完角色</t>
+  </si>
+  <si>
     <t>接收破坏地形</t>
   </si>
   <si>
-    <t>所有人选完角色</t>
+    <t>S2CCellChange（mapId，x，z，nowHp）</t>
+  </si>
+  <si>
+    <t>广播charId</t>
   </si>
   <si>
     <t>接收人物伤害</t>
   </si>
   <si>
+    <t>S2CHPChange（playerId，nowHP）</t>
+  </si>
+  <si>
+    <t>收取并存储所有人playerId，charId</t>
+  </si>
+  <si>
+    <t>S2CAllCharId（playerId2CharId）</t>
+  </si>
+  <si>
     <t>接收人物死亡</t>
   </si>
   <si>
+    <t>S2CDie（playerId）</t>
+  </si>
+  <si>
+    <t>根据playerId创建所有玩家</t>
+  </si>
+  <si>
     <t>选位置</t>
   </si>
   <si>
     <t>C2SChooseLocation（x，z）</t>
   </si>
   <si>
+    <t>只剩一人，发送获胜playerId</t>
+  </si>
+  <si>
     <t>初始化人位置</t>
   </si>
   <si>
+    <t>接收获胜者playerid</t>
+  </si>
+  <si>
+    <t>S2CSendWinner（playerId）</t>
+  </si>
+  <si>
     <t>所有人选完位置</t>
   </si>
   <si>
+    <t>广播位置</t>
+  </si>
+  <si>
     <t>收取并存储所有人位置</t>
   </si>
   <si>
@@ -110,6 +176,15 @@
     <t>n秒后游戏开始</t>
   </si>
   <si>
+    <t>广播游戏开始</t>
+  </si>
+  <si>
+    <t>接收开始消息</t>
+  </si>
+  <si>
+    <t>S2CGameStart（placeholder）</t>
+  </si>
+  <si>
     <t>实时发送位置</t>
   </si>
   <si>
@@ -119,19 +194,28 @@
     <t>S2CMove（allCharLocation）</t>
   </si>
   <si>
+    <t>地图表</t>
+  </si>
+  <si>
+    <t>举例（10*10）</t>
+  </si>
+  <si>
+    <t>x/z</t>
+  </si>
+  <si>
     <t>0-1000</t>
   </si>
   <si>
-    <t>血量</t>
-  </si>
-  <si>
-    <t>有血量的格子在另一张表存着隐藏的道具</t>
+    <t>可破坏的格子，数值为血量，0表示空地</t>
+  </si>
+  <si>
+    <t>格子中可能放着不可见道具</t>
   </si>
   <si>
     <t>1001-2000</t>
   </si>
   <si>
-    <t>角色Id</t>
+    <t>站着玩家的格子，数值为角色Id</t>
   </si>
   <si>
     <t>格子中站着人</t>
@@ -140,131 +224,47 @@
     <t>2001-3000</t>
   </si>
   <si>
-    <t>道具Id</t>
-  </si>
-  <si>
-    <t>这表示丢在地上可见的道具</t>
+    <t>放在地上的道具，数值为道具id</t>
+  </si>
+  <si>
+    <t>格子中放着可见道具</t>
   </si>
   <si>
     <t>不可破坏</t>
   </si>
   <si>
-    <t>S2CCellChange（mapId，x，z，nowHp）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>广播charId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>广播位置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>广播游戏开始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收开始消息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2CGameStart（placeholder）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C2SMove（x，z）（客户端控制移动速度吧，好调）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C2SAttack（weaponId，locationX，locationZ）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2CAttack（weaponId，x，z）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>广播破坏地形</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>广播伤害到人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>广播人物死亡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成clientId和playerId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送clientId和playerId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>收取并存储clientId和playerId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2CSendClientId（clientId，playerId）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C2SChooseChar（charId）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2CSendCharId（playerId, charId）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>收取并存储playerId对应的charId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2CAllCharId（playerId2CharId）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2CHPChange（playerId，nowHP）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2CDie（playerId）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>收取并存储所有人playerId，charId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据playerId创建所有玩家</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>只剩一人，发送获胜playerId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2CSendWinner（playerId）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收获胜者playerid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>格子不可变</t>
+  </si>
+  <si>
+    <t>地图隐藏道具表</t>
+  </si>
+  <si>
+    <t>藏在格子里的道具，数值为道具id</t>
+  </si>
+  <si>
+    <t>格子里没有东西</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -278,26 +278,380 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -305,26 +659,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -582,41 +1229,41 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" customWidth="1"/>
-    <col min="10" max="10" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5583333333333" customWidth="1"/>
+    <col min="2" max="2" width="36.5583333333333" customWidth="1"/>
+    <col min="3" max="3" width="8.88333333333333" customWidth="1"/>
+    <col min="4" max="4" width="21.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="8.44166666666667" customWidth="1"/>
+    <col min="7" max="7" width="20.4416666666667" customWidth="1"/>
+    <col min="8" max="8" width="51" customWidth="1"/>
+    <col min="9" max="9" width="8.775" customWidth="1"/>
+    <col min="10" max="10" width="27.775" customWidth="1"/>
+    <col min="11" max="11" width="33.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -630,7 +1277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:8">
       <c r="D3" t="s">
         <v>4</v>
       </c>
@@ -638,280 +1285,1077 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="4:11">
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="4:8">
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10">
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8">
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10">
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8">
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8">
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8">
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
+    <row r="20" spans="4:4">
+      <c r="D20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>54</v>
       </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+      <c r="B24" t="s">
         <v>55</v>
       </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="D25" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B26" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" customWidth="1"/>
-    <col min="3" max="3" width="40.21875" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="8.125" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="4.375" customWidth="1"/>
+    <col min="8" max="11" width="5.375" customWidth="1"/>
+    <col min="12" max="12" width="3.375" customWidth="1"/>
+    <col min="13" max="17" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2">
+        <v>2</v>
+      </c>
+      <c r="K1" s="2">
+        <v>3</v>
+      </c>
+      <c r="L1" s="2">
+        <v>4</v>
+      </c>
+      <c r="M1" s="2">
+        <v>5</v>
+      </c>
+      <c r="N1" s="2">
+        <v>6</v>
+      </c>
+      <c r="O1" s="2">
+        <v>7</v>
+      </c>
+      <c r="P1" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+        <v>67</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
         <v>9999</v>
       </c>
+      <c r="J3" s="7">
+        <v>9999</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>30</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>30</v>
+      </c>
+      <c r="P3" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="G4" s="4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>9999</v>
+      </c>
+      <c r="J4" s="7">
+        <v>9999</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>30</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>9999</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="G5" s="4">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1001</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>9999</v>
+      </c>
+      <c r="P5" s="7">
+        <v>9999</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="7:17">
+      <c r="G6" s="4">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3">
+        <v>30</v>
+      </c>
+      <c r="I6" s="3">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1002</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>9999</v>
+      </c>
+      <c r="P6" s="7">
+        <v>9999</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="4">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>30</v>
+      </c>
+      <c r="I7" s="3">
+        <v>30</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2001</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="4">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>2002</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <v>-1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="4">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>2002</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>2003</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="7:17">
+      <c r="G10" s="4">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>30</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>30</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="7:17">
+      <c r="G11" s="4">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>30</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="7:17">
+      <c r="G13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2">
+        <v>3</v>
+      </c>
+      <c r="L13" s="2">
+        <v>4</v>
+      </c>
+      <c r="M13" s="2">
+        <v>5</v>
+      </c>
+      <c r="N13" s="2">
+        <v>6</v>
+      </c>
+      <c r="O13" s="2">
+        <v>7</v>
+      </c>
+      <c r="P13" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="7:17">
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>-1</v>
+      </c>
+      <c r="I14">
+        <v>-1</v>
+      </c>
+      <c r="J14">
+        <v>-1</v>
+      </c>
+      <c r="K14">
+        <v>-1</v>
+      </c>
+      <c r="L14">
+        <v>-1</v>
+      </c>
+      <c r="M14">
+        <v>-1</v>
+      </c>
+      <c r="N14">
+        <v>-1</v>
+      </c>
+      <c r="O14">
+        <v>-1</v>
+      </c>
+      <c r="P14">
+        <v>-1</v>
+      </c>
+      <c r="Q14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="7:17">
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>-1</v>
+      </c>
+      <c r="I15">
+        <v>-1</v>
+      </c>
+      <c r="J15">
+        <v>-1</v>
+      </c>
+      <c r="K15">
+        <v>-1</v>
+      </c>
+      <c r="L15">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="3">
+        <v>2005</v>
+      </c>
+      <c r="N15">
+        <v>-1</v>
+      </c>
+      <c r="O15" s="3">
+        <v>2002</v>
+      </c>
+      <c r="P15" s="3">
+        <v>2002</v>
+      </c>
+      <c r="Q15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="7:17">
+      <c r="G16" s="4">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>-1</v>
+      </c>
+      <c r="I16">
+        <v>-1</v>
+      </c>
+      <c r="J16">
+        <v>-1</v>
+      </c>
+      <c r="K16">
+        <v>-1</v>
+      </c>
+      <c r="L16">
+        <v>-1</v>
+      </c>
+      <c r="M16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N16">
+        <v>-1</v>
+      </c>
+      <c r="O16">
+        <v>-1</v>
+      </c>
+      <c r="P16">
+        <v>-1</v>
+      </c>
+      <c r="Q16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="7:17">
+      <c r="G17" s="4">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>-1</v>
+      </c>
+      <c r="I17">
+        <v>-1</v>
+      </c>
+      <c r="J17">
+        <v>-1</v>
+      </c>
+      <c r="K17">
+        <v>-1</v>
+      </c>
+      <c r="L17">
+        <v>-1</v>
+      </c>
+      <c r="M17">
+        <v>-1</v>
+      </c>
+      <c r="N17">
+        <v>-1</v>
+      </c>
+      <c r="O17">
+        <v>-1</v>
+      </c>
+      <c r="P17">
+        <v>-1</v>
+      </c>
+      <c r="Q17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="7:17">
+      <c r="G18" s="4">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2001</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J18">
+        <v>-1</v>
+      </c>
+      <c r="K18">
+        <v>-1</v>
+      </c>
+      <c r="L18">
+        <v>-1</v>
+      </c>
+      <c r="M18">
+        <v>-1</v>
+      </c>
+      <c r="N18">
+        <v>-1</v>
+      </c>
+      <c r="O18">
+        <v>-1</v>
+      </c>
+      <c r="P18">
+        <v>-1</v>
+      </c>
+      <c r="Q18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="7:17">
+      <c r="G19" s="4">
+        <v>5</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2006</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2005</v>
+      </c>
+      <c r="J19">
+        <v>-1</v>
+      </c>
+      <c r="K19">
+        <v>-1</v>
+      </c>
+      <c r="L19">
+        <v>-1</v>
+      </c>
+      <c r="M19">
+        <v>-1</v>
+      </c>
+      <c r="N19">
+        <v>-1</v>
+      </c>
+      <c r="O19">
+        <v>-1</v>
+      </c>
+      <c r="P19">
+        <v>-1</v>
+      </c>
+      <c r="Q19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="7:17">
+      <c r="G20" s="4">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>-1</v>
+      </c>
+      <c r="I20">
+        <v>-1</v>
+      </c>
+      <c r="J20">
+        <v>-1</v>
+      </c>
+      <c r="K20">
+        <v>-1</v>
+      </c>
+      <c r="L20">
+        <v>-1</v>
+      </c>
+      <c r="M20">
+        <v>-1</v>
+      </c>
+      <c r="N20">
+        <v>-1</v>
+      </c>
+      <c r="O20">
+        <v>-1</v>
+      </c>
+      <c r="P20">
+        <v>-1</v>
+      </c>
+      <c r="Q20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="7:17">
+      <c r="G21" s="4">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>-1</v>
+      </c>
+      <c r="I21">
+        <v>-1</v>
+      </c>
+      <c r="J21">
+        <v>-1</v>
+      </c>
+      <c r="K21">
+        <v>-1</v>
+      </c>
+      <c r="L21">
+        <v>-1</v>
+      </c>
+      <c r="M21">
+        <v>-1</v>
+      </c>
+      <c r="N21">
+        <v>-1</v>
+      </c>
+      <c r="O21">
+        <v>-1</v>
+      </c>
+      <c r="P21">
+        <v>-1</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="22" spans="7:17">
+      <c r="G22" s="4">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>-1</v>
+      </c>
+      <c r="I22">
+        <v>-1</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2003</v>
+      </c>
+      <c r="K22">
+        <v>-1</v>
+      </c>
+      <c r="L22">
+        <v>-1</v>
+      </c>
+      <c r="M22">
+        <v>-1</v>
+      </c>
+      <c r="N22" s="3">
+        <v>2003</v>
+      </c>
+      <c r="O22">
+        <v>-1</v>
+      </c>
+      <c r="P22">
+        <v>-1</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="7:17">
+      <c r="G23" s="4">
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <v>-1</v>
+      </c>
+      <c r="I23">
+        <v>-1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2004</v>
+      </c>
+      <c r="K23">
+        <v>-1</v>
+      </c>
+      <c r="L23">
+        <v>-1</v>
+      </c>
+      <c r="M23">
+        <v>-1</v>
+      </c>
+      <c r="N23">
+        <v>-1</v>
+      </c>
+      <c r="O23">
+        <v>-1</v>
+      </c>
+      <c r="P23" s="3">
+        <v>2004</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>2005</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/File/游戏逻辑.xlsx
+++ b/File/游戏逻辑.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\Project\Server\trunk\File\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D82A37C-BC0E-4176-9E9A-B7F3BBBD350F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="游戏步骤" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
   <si>
     <t>游戏开始前</t>
   </si>
@@ -35,9 +41,6 @@
     <t>发移动包</t>
   </si>
   <si>
-    <t>C2SMove（x，z）（客户端控制移动速度吧，好调）</t>
-  </si>
-  <si>
     <t>初始化地图</t>
   </si>
   <si>
@@ -53,9 +56,6 @@
     <t>发攻击包</t>
   </si>
   <si>
-    <t>C2SAttack（weaponId，locationX，locationZ）</t>
-  </si>
-  <si>
     <t>连接</t>
   </si>
   <si>
@@ -74,24 +74,15 @@
     <t>接收攻击消息并表现</t>
   </si>
   <si>
-    <t>S2CAttack（weaponId，x，z）</t>
-  </si>
-  <si>
     <t>收取并存储clientId和playerId</t>
   </si>
   <si>
-    <t>S2CSendClientId（clientId，playerId）</t>
-  </si>
-  <si>
     <t>攻击触发</t>
   </si>
   <si>
     <t>选角色</t>
   </si>
   <si>
-    <t>C2SChooseChar（charId）</t>
-  </si>
-  <si>
     <t>广播破坏地形</t>
   </si>
   <si>
@@ -104,51 +95,30 @@
     <t>收取并存储playerId对应的charId</t>
   </si>
   <si>
-    <t>S2CSendCharId（playerId, charId）</t>
-  </si>
-  <si>
     <t>广播人物死亡</t>
   </si>
   <si>
     <t>所有人选完角色</t>
   </si>
   <si>
-    <t>接收破坏地形</t>
-  </si>
-  <si>
-    <t>S2CCellChange（mapId，x，z，nowHp）</t>
-  </si>
-  <si>
     <t>广播charId</t>
   </si>
   <si>
     <t>接收人物伤害</t>
   </si>
   <si>
-    <t>S2CHPChange（playerId，nowHP）</t>
-  </si>
-  <si>
     <t>收取并存储所有人playerId，charId</t>
   </si>
   <si>
-    <t>S2CAllCharId（playerId2CharId）</t>
-  </si>
-  <si>
     <t>接收人物死亡</t>
   </si>
   <si>
-    <t>S2CDie（playerId）</t>
-  </si>
-  <si>
     <t>根据playerId创建所有玩家</t>
   </si>
   <si>
     <t>选位置</t>
   </si>
   <si>
-    <t>C2SChooseLocation（x，z）</t>
-  </si>
-  <si>
     <t>只剩一人，发送获胜playerId</t>
   </si>
   <si>
@@ -158,9 +128,6 @@
     <t>接收获胜者playerid</t>
   </si>
   <si>
-    <t>S2CSendWinner（playerId）</t>
-  </si>
-  <si>
     <t>所有人选完位置</t>
   </si>
   <si>
@@ -170,9 +137,6 @@
     <t>收取并存储所有人位置</t>
   </si>
   <si>
-    <t>S2CAllLocation（allLocation）</t>
-  </si>
-  <si>
     <t>n秒后游戏开始</t>
   </si>
   <si>
@@ -182,18 +146,12 @@
     <t>接收开始消息</t>
   </si>
   <si>
-    <t>S2CGameStart（placeholder）</t>
-  </si>
-  <si>
     <t>实时发送位置</t>
   </si>
   <si>
     <t>接收位置</t>
   </si>
   <si>
-    <t>S2CMove（allCharLocation）</t>
-  </si>
-  <si>
     <t>地图表</t>
   </si>
   <si>
@@ -243,19 +201,119 @@
   </si>
   <si>
     <t>格子里没有东西</t>
+  </si>
+  <si>
+    <t>接收地图值变化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图值发生变化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取新地图值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2CSendClientId（）
+clientId 客户端id
+playerId 玩家id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2SChooseChar（）
+charId 确定选哪个角色的角色id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2CSendCharId（）
+playerId 玩家id
+charId 角色id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2CAllCharId（）
+playerId2CharId 所有人玩家id对应的角色id</t>
+  </si>
+  <si>
+    <t>C2SChooseLocation（）
+x 地图数组的x值
+z 地图数组的z值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2CAllLocation（）
+allLocation 所有人地图数组的x，z值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2CMove（）
+allCharLocation 所有人在unity的坐标值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2CGameStart（）
+placeholder 占位符，无意义</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2SMove（）（客户端控制移动速度吧，好调）
+x 坐标x值
+z 坐标z值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2SAttack（）
+weaponId 武器id
+locationX 人物攻击时所在坐标x值
+locationZ 人物攻击时所在坐标z值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2CAttack（）
+weaponId 武器id
+x 泡泡应该放的地图数组x值
+z 泡泡应该放的地图数组z值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2CCellChange（）
+mapId 地图id
+x 变化的地图数组x值
+z 变化的地图数组z值
+value 变化后的值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2CHPChange（）
+playerId 玩家id
+nowHP 变化后的血量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2CDie（）
+playerId 死亡的玩家id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2CSendWinner（）
+playerId 获胜的玩家id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2CCellChange（）
+mapId 地图id
+x 地图数组x值
+z 地图数组z值
+value 地图变化后的值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,151 +335,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,194 +384,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -659,253 +393,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -916,62 +408,24 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1229,33 +683,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5583333333333" customWidth="1"/>
-    <col min="2" max="2" width="36.5583333333333" customWidth="1"/>
-    <col min="3" max="3" width="8.88333333333333" customWidth="1"/>
-    <col min="4" max="4" width="21.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="8.44166666666667" customWidth="1"/>
-    <col min="7" max="7" width="20.4416666666667" customWidth="1"/>
-    <col min="8" max="8" width="51" customWidth="1"/>
-    <col min="9" max="9" width="8.775" customWidth="1"/>
-    <col min="10" max="10" width="27.775" customWidth="1"/>
-    <col min="11" max="11" width="33.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" customWidth="1"/>
+    <col min="10" max="10" width="27.77734375" customWidth="1"/>
+    <col min="11" max="11" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1263,7 +717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1277,260 +731,268 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="4:8">
+    <row r="3" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="4:11">
-      <c r="D4" t="s">
+      <c r="J4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" t="s">
+    </row>
+    <row r="5" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="4:8">
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="4:10">
-      <c r="D7" t="s">
+    <row r="8" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="J7" t="s">
+      <c r="G8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="4:8">
-      <c r="D8" t="s">
+      <c r="H8" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="G8" t="s">
+      <c r="B9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" t="s">
         <v>18</v>
       </c>
-      <c r="H8" t="s">
+    </row>
+    <row r="10" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
+      <c r="B10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
+    <row r="12" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" t="s">
         <v>24</v>
       </c>
-      <c r="J10" t="s">
+    </row>
+    <row r="13" spans="1:11" ht="69" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="4:10">
-      <c r="D11" t="s">
+      <c r="G13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="J11" t="s">
+      <c r="G14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
+      <c r="H14" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" t="s">
         <v>29</v>
       </c>
-      <c r="J12" t="s">
+      <c r="H15" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="4:8">
-      <c r="D13" t="s">
+    <row r="17" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="G13" t="s">
+      <c r="B17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" t="s">
         <v>32</v>
       </c>
-      <c r="H13" t="s">
+    </row>
+    <row r="18" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="4:8">
-      <c r="D14" t="s">
+      <c r="G18" t="s">
         <v>34</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H18" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
         <v>35</v>
       </c>
-      <c r="H14" t="s">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
+      <c r="J20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>37</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
         <v>38</v>
       </c>
-      <c r="G15" t="s">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
         <v>39</v>
       </c>
-      <c r="H15" t="s">
+    </row>
+    <row r="24" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8">
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4">
-      <c r="D22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4">
-      <c r="D23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="B24" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="D25" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>58</v>
+        <v>42</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="D26" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="25.375" customWidth="1"/>
-    <col min="5" max="5" width="8.125" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="4.375" customWidth="1"/>
-    <col min="8" max="11" width="5.375" customWidth="1"/>
-    <col min="12" max="12" width="3.375" customWidth="1"/>
-    <col min="13" max="17" width="5.375" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" customWidth="1"/>
+    <col min="8" max="11" width="5.33203125" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" customWidth="1"/>
+    <col min="13" max="17" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="H1" s="2">
         <v>0</v>
@@ -1563,15 +1025,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3"/>
       <c r="G2" s="4">
@@ -1608,15 +1070,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D3" s="5"/>
       <c r="G3" s="4">
@@ -1653,15 +1115,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D4" s="6"/>
       <c r="G4" s="4">
@@ -1698,15 +1160,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9999</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D5" s="7"/>
       <c r="G5" s="4">
@@ -1743,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="7:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G6" s="4">
         <v>4</v>
       </c>
@@ -1778,9 +1240,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="G7" s="4">
         <v>5</v>
@@ -1816,12 +1278,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G8" s="4">
         <v>6</v>
@@ -1857,12 +1319,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-1</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="G9" s="4">
         <v>7</v>
@@ -1898,7 +1360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="7:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="4">
         <v>8</v>
       </c>
@@ -1933,7 +1395,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="7:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G11" s="4">
         <v>9</v>
       </c>
@@ -1968,9 +1430,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="7:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G13" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -2003,7 +1465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="7:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G14" s="4">
         <v>0</v>
       </c>
@@ -2038,7 +1500,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="7:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G15" s="4">
         <v>1</v>
       </c>
@@ -2073,7 +1535,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="7:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G16" s="4">
         <v>2</v>
       </c>
@@ -2108,7 +1570,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="7:17">
+    <row r="17" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G17" s="4">
         <v>3</v>
       </c>
@@ -2143,7 +1605,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="7:17">
+    <row r="18" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G18" s="4">
         <v>4</v>
       </c>
@@ -2178,7 +1640,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="7:17">
+    <row r="19" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G19" s="4">
         <v>5</v>
       </c>
@@ -2213,7 +1675,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="7:17">
+    <row r="20" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G20" s="4">
         <v>6</v>
       </c>
@@ -2248,7 +1710,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="7:17">
+    <row r="21" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G21" s="4">
         <v>7</v>
       </c>
@@ -2283,7 +1745,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="22" spans="7:17">
+    <row r="22" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G22" s="4">
         <v>8</v>
       </c>
@@ -2318,7 +1780,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="7:17">
+    <row r="23" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G23" s="4">
         <v>9</v>
       </c>
@@ -2354,8 +1816,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/File/游戏逻辑.xlsx
+++ b/File/游戏逻辑.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\Project\Server\trunk\File\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D82A37C-BC0E-4176-9E9A-B7F3BBBD350F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="游戏步骤" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
   <si>
     <t>游戏开始前</t>
   </si>
@@ -39,242 +33,100 @@
   </si>
   <si>
     <t>发移动包</t>
-  </si>
-  <si>
-    <t>初始化地图</t>
-  </si>
-  <si>
-    <t>接收并更改人位置</t>
-  </si>
-  <si>
-    <t>（发人物位置包是一直在进行的）</t>
-  </si>
-  <si>
-    <t>开启监听</t>
-  </si>
-  <si>
-    <t>发攻击包</t>
-  </si>
-  <si>
-    <t>连接</t>
-  </si>
-  <si>
-    <t>接收攻击</t>
-  </si>
-  <si>
-    <t>生成clientId和playerId</t>
-  </si>
-  <si>
-    <t>发送攻击消息</t>
-  </si>
-  <si>
-    <t>发送clientId和playerId</t>
-  </si>
-  <si>
-    <t>接收攻击消息并表现</t>
-  </si>
-  <si>
-    <t>收取并存储clientId和playerId</t>
-  </si>
-  <si>
-    <t>攻击触发</t>
-  </si>
-  <si>
-    <t>选角色</t>
-  </si>
-  <si>
-    <t>广播破坏地形</t>
-  </si>
-  <si>
-    <t>发送charId</t>
-  </si>
-  <si>
-    <t>广播伤害到人</t>
-  </si>
-  <si>
-    <t>收取并存储playerId对应的charId</t>
-  </si>
-  <si>
-    <t>广播人物死亡</t>
-  </si>
-  <si>
-    <t>所有人选完角色</t>
-  </si>
-  <si>
-    <t>广播charId</t>
-  </si>
-  <si>
-    <t>接收人物伤害</t>
-  </si>
-  <si>
-    <t>收取并存储所有人playerId，charId</t>
-  </si>
-  <si>
-    <t>接收人物死亡</t>
-  </si>
-  <si>
-    <t>根据playerId创建所有玩家</t>
-  </si>
-  <si>
-    <t>选位置</t>
-  </si>
-  <si>
-    <t>只剩一人，发送获胜playerId</t>
-  </si>
-  <si>
-    <t>初始化人位置</t>
-  </si>
-  <si>
-    <t>接收获胜者playerid</t>
-  </si>
-  <si>
-    <t>所有人选完位置</t>
-  </si>
-  <si>
-    <t>广播位置</t>
-  </si>
-  <si>
-    <t>收取并存储所有人位置</t>
-  </si>
-  <si>
-    <t>n秒后游戏开始</t>
-  </si>
-  <si>
-    <t>广播游戏开始</t>
-  </si>
-  <si>
-    <t>接收开始消息</t>
-  </si>
-  <si>
-    <t>实时发送位置</t>
-  </si>
-  <si>
-    <t>接收位置</t>
-  </si>
-  <si>
-    <t>地图表</t>
-  </si>
-  <si>
-    <t>举例（10*10）</t>
-  </si>
-  <si>
-    <t>x/z</t>
-  </si>
-  <si>
-    <t>0-1000</t>
-  </si>
-  <si>
-    <t>可破坏的格子，数值为血量，0表示空地</t>
-  </si>
-  <si>
-    <t>格子中可能放着不可见道具</t>
-  </si>
-  <si>
-    <t>1001-2000</t>
-  </si>
-  <si>
-    <t>站着玩家的格子，数值为角色Id</t>
-  </si>
-  <si>
-    <t>格子中站着人</t>
-  </si>
-  <si>
-    <t>2001-3000</t>
-  </si>
-  <si>
-    <t>放在地上的道具，数值为道具id</t>
-  </si>
-  <si>
-    <t>格子中放着可见道具</t>
-  </si>
-  <si>
-    <t>不可破坏</t>
-  </si>
-  <si>
-    <t>格子不可变</t>
-  </si>
-  <si>
-    <t>地图隐藏道具表</t>
-  </si>
-  <si>
-    <t>藏在格子里的道具，数值为道具id</t>
-  </si>
-  <si>
-    <t>格子里没有东西</t>
-  </si>
-  <si>
-    <t>接收地图值变化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图值发生变化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>收取新地图值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2CSendClientId（）
-clientId 客户端id
-playerId 玩家id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C2SChooseChar（）
-charId 确定选哪个角色的角色id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2CSendCharId（）
-playerId 玩家id
-charId 角色id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2CAllCharId（）
-playerId2CharId 所有人玩家id对应的角色id</t>
-  </si>
-  <si>
-    <t>C2SChooseLocation（）
-x 地图数组的x值
-z 地图数组的z值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2CAllLocation（）
-allLocation 所有人地图数组的x，z值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2CMove（）
-allCharLocation 所有人在unity的坐标值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2CGameStart（）
-placeholder 占位符，无意义</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>C2SMove（）（客户端控制移动速度吧，好调）
 x 坐标x值
 z 坐标z值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化地图</t>
+  </si>
+  <si>
+    <t>接收并更改人位置</t>
+  </si>
+  <si>
+    <t>（发人物位置包是一直在进行的）</t>
+  </si>
+  <si>
+    <t>开启监听</t>
+  </si>
+  <si>
+    <t>发攻击包</t>
   </si>
   <si>
     <t>C2SAttack（）
 weaponId 武器id
 locationX 人物攻击时所在坐标x值
 locationZ 人物攻击时所在坐标z值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接</t>
+  </si>
+  <si>
+    <t>接收攻击</t>
+  </si>
+  <si>
+    <t>生成clientId和playerId</t>
+  </si>
+  <si>
+    <t>发送攻击消息</t>
+  </si>
+  <si>
+    <t>发送clientId和playerId</t>
+  </si>
+  <si>
+    <t>接收攻击消息并表现</t>
   </si>
   <si>
     <t>S2CAttack（）
 weaponId 武器id
 x 泡泡应该放的地图数组x值
 z 泡泡应该放的地图数组z值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取并存储clientId和playerId</t>
+  </si>
+  <si>
+    <t>S2CSendClientId（）
+clientId 客户端id
+playerId 玩家id</t>
+  </si>
+  <si>
+    <t>攻击触发</t>
+  </si>
+  <si>
+    <t>选角色</t>
+  </si>
+  <si>
+    <t>C2SChooseChar（）
+charId 确定选哪个角色的角色id</t>
+  </si>
+  <si>
+    <t>广播破坏地形</t>
+  </si>
+  <si>
+    <t>发送charId</t>
+  </si>
+  <si>
+    <t>广播伤害到人</t>
+  </si>
+  <si>
+    <t>收取并存储playerId对应的charId</t>
+  </si>
+  <si>
+    <t>S2CSendCharId（）
+playerId 玩家id
+charId 角色id</t>
+  </si>
+  <si>
+    <t>广播人物死亡</t>
+  </si>
+  <si>
+    <t>所有人选完角色</t>
+  </si>
+  <si>
+    <t>接收地图值变化</t>
   </si>
   <si>
     <t>S2CCellChange（）
@@ -282,23 +134,74 @@
 x 变化的地图数组x值
 z 变化的地图数组z值
 value 变化后的值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广播charId</t>
+  </si>
+  <si>
+    <t>接收人物伤害</t>
   </si>
   <si>
     <t>S2CHPChange（）
 playerId 玩家id
 nowHP 变化后的血量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取并存储所有人playerId，charId</t>
+  </si>
+  <si>
+    <t>S2CAllCharId（）
+playerId2CharId 所有人玩家id对应的角色id</t>
+  </si>
+  <si>
+    <t>接收人物死亡</t>
   </si>
   <si>
     <t>S2CDie（）
 playerId 死亡的玩家id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据playerId创建所有玩家</t>
+  </si>
+  <si>
+    <t>选位置</t>
+  </si>
+  <si>
+    <t>C2SChooseLocation（）
+x 地图数组的x值
+z 地图数组的z值</t>
+  </si>
+  <si>
+    <t>只剩一人，发送获胜playerId</t>
+  </si>
+  <si>
+    <t>初始化人位置</t>
+  </si>
+  <si>
+    <t>接收获胜者playerid</t>
   </si>
   <si>
     <t>S2CSendWinner（）
 playerId 获胜的玩家id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有人选完位置</t>
+  </si>
+  <si>
+    <t>广播位置</t>
+  </si>
+  <si>
+    <t>地图值发生变化</t>
+  </si>
+  <si>
+    <t>收取并存储所有人位置</t>
+  </si>
+  <si>
+    <t>S2CAllLocation（）
+allLocation 所有人地图数组的x，z值</t>
+  </si>
+  <si>
+    <t>收取新地图值</t>
   </si>
   <si>
     <t>S2CCellChange（）
@@ -306,14 +209,99 @@
 x 地图数组x值
 z 地图数组z值
 value 地图变化后的值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n秒后游戏开始</t>
+  </si>
+  <si>
+    <t>广播游戏开始</t>
+  </si>
+  <si>
+    <t>接收开始消息</t>
+  </si>
+  <si>
+    <t>S2CGameStart（）
+placeholder 占位符，无意义</t>
+  </si>
+  <si>
+    <t>实时发送位置</t>
+  </si>
+  <si>
+    <t>接收位置</t>
+  </si>
+  <si>
+    <t>S2CMove（）
+allCharLocation 所有人在unity的坐标值</t>
+  </si>
+  <si>
+    <t>地图表</t>
+  </si>
+  <si>
+    <t>举例（10*10）</t>
+  </si>
+  <si>
+    <t>x/z</t>
+  </si>
+  <si>
+    <t>0-1000</t>
+  </si>
+  <si>
+    <t>可破坏的格子，数值为血量，0表示空地</t>
+  </si>
+  <si>
+    <t>格子中可能放着不可见道具</t>
+  </si>
+  <si>
+    <t>1001-2000</t>
+  </si>
+  <si>
+    <t>站着玩家的格子，数值为角色Id</t>
+  </si>
+  <si>
+    <t>格子中站着人</t>
+  </si>
+  <si>
+    <t>2001-3000</t>
+  </si>
+  <si>
+    <t>放在地上的道具，数值为道具id</t>
+  </si>
+  <si>
+    <t>格子中放着可见道具</t>
+  </si>
+  <si>
+    <t>不可破坏</t>
+  </si>
+  <si>
+    <t>格子不可变</t>
+  </si>
+  <si>
+    <t>3001-4000</t>
+  </si>
+  <si>
+    <t>放出来会爆炸的泡泡</t>
+  </si>
+  <si>
+    <t>地图隐藏道具表</t>
+  </si>
+  <si>
+    <t>藏在格子里的道具，数值为道具id</t>
+  </si>
+  <si>
+    <t>格子里没有东西</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,13 +323,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,12 +488,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -384,8 +504,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -393,39 +699,323 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -683,41 +1273,41 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" customWidth="1"/>
-    <col min="8" max="8" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" customWidth="1"/>
-    <col min="10" max="10" width="27.77734375" customWidth="1"/>
-    <col min="11" max="11" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.5583333333333" customWidth="1"/>
+    <col min="2" max="2" width="37.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="8.88333333333333" customWidth="1"/>
+    <col min="4" max="4" width="21.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="8.44166666666667" customWidth="1"/>
+    <col min="7" max="7" width="20.4416666666667" customWidth="1"/>
+    <col min="8" max="8" width="46.775" customWidth="1"/>
+    <col min="9" max="9" width="8.775" customWidth="1"/>
+    <col min="10" max="10" width="27.775" customWidth="1"/>
+    <col min="11" max="11" width="33.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="8" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -731,312 +1321,313 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="3" ht="40.5" spans="4:8">
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="4:11">
       <c r="D4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="54" spans="4:8">
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10">
       <c r="D7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="54" spans="4:8">
       <c r="D8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" ht="43.8" customHeight="1" spans="1:10">
       <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>63</v>
+        <v>20</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="1:10">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>64</v>
+        <v>23</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10">
       <c r="D11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" ht="40.5" spans="1:10">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>65</v>
+        <v>28</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="J12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="69" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" ht="67.5" spans="4:8">
       <c r="D13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" ht="40.5" spans="4:8">
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" ht="28.2" customHeight="1" spans="1:8">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" ht="40.5" spans="1:10">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" ht="27" spans="4:8">
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10">
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" ht="67.5" spans="1:8">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" ht="27" spans="1:2">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" ht="27" spans="1:4">
+      <c r="A26" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="B26" s="9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="69" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="D25" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="9"/>
+      <c r="D26" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" customWidth="1"/>
-    <col min="8" max="11" width="5.33203125" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" customWidth="1"/>
-    <col min="13" max="17" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="8.10833333333333" customWidth="1"/>
+    <col min="6" max="6" width="14.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="4.33333333333333" customWidth="1"/>
+    <col min="8" max="11" width="5.33333333333333" customWidth="1"/>
+    <col min="12" max="12" width="3.33333333333333" customWidth="1"/>
+    <col min="13" max="17" width="5.33333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="2">
-        <v>0</v>
-      </c>
-      <c r="I1" s="2">
+        <v>64</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1">
         <v>1</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="1">
         <v>2</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="1">
         <v>3</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="1">
         <v>4</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="1">
         <v>5</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="1">
         <v>6</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="1">
         <v>7</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="1">
         <v>8</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="G2" s="4">
+        <v>67</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2">
@@ -1070,27 +1661,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="G3" s="4">
+        <v>70</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="5">
         <v>9999</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="5">
         <v>9999</v>
       </c>
       <c r="K3">
@@ -1099,43 +1690,43 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>30</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <v>30</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="2">
         <v>30</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="G4" s="4">
+        <v>73</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="G4" s="1">
         <v>2</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="5">
         <v>9999</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="5">
         <v>9999</v>
       </c>
       <c r="K4">
@@ -1144,7 +1735,7 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>30</v>
       </c>
       <c r="N4">
@@ -1160,18 +1751,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>9999</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="G5" s="4">
+        <v>75</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="G5" s="1">
         <v>3</v>
       </c>
       <c r="H5">
@@ -1183,7 +1774,7 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="3">
         <v>1001</v>
       </c>
       <c r="L5">
@@ -1195,24 +1786,30 @@
       <c r="N5">
         <v>0</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="5">
         <v>9999</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="5">
         <v>9999</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G6" s="4">
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="1">
         <v>4</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>30</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>30</v>
       </c>
       <c r="J6">
@@ -1224,36 +1821,33 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="3">
         <v>1002</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="5">
         <v>9999</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="5">
         <v>9999</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="4">
+    <row r="7" spans="7:17">
+      <c r="G7" s="1">
         <v>5</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>30</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>30</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="4">
         <v>2001</v>
       </c>
       <c r="K7">
@@ -1278,14 +1872,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="4">
+        <v>78</v>
+      </c>
+      <c r="G8" s="1">
         <v>6</v>
       </c>
       <c r="H8">
@@ -1303,7 +1894,7 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="4">
         <v>2002</v>
       </c>
       <c r="N8">
@@ -1319,14 +1910,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>-1</v>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="4">
+        <v>79</v>
+      </c>
+      <c r="G9" s="1">
         <v>7</v>
       </c>
       <c r="H9">
@@ -1338,7 +1929,7 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="4">
         <v>2002</v>
       </c>
       <c r="L9">
@@ -1350,18 +1941,24 @@
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="4">
         <v>2003</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G10" s="4">
+    <row r="10" spans="1:17">
+      <c r="A10">
+        <v>-1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="1">
         <v>8</v>
       </c>
       <c r="H10">
@@ -1370,7 +1967,7 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>30</v>
       </c>
       <c r="K10">
@@ -1382,7 +1979,7 @@
       <c r="M10">
         <v>0</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="2">
         <v>30</v>
       </c>
       <c r="O10">
@@ -1391,12 +1988,12 @@
       <c r="P10">
         <v>0</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G11" s="4">
+    <row r="11" spans="7:17">
+      <c r="G11" s="1">
         <v>9</v>
       </c>
       <c r="H11">
@@ -1405,7 +2002,7 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>30</v>
       </c>
       <c r="K11">
@@ -1423,50 +2020,50 @@
       <c r="O11">
         <v>0</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="2">
         <v>30</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="7:17">
       <c r="G13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
+        <v>64</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
         <v>1</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>2</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <v>3</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <v>4</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="1">
         <v>5</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="1">
         <v>6</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="1">
         <v>7</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="1">
         <v>8</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G14" s="4">
+    <row r="14" spans="7:17">
+      <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14">
@@ -1500,8 +2097,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G15" s="4">
+    <row r="15" spans="7:17">
+      <c r="G15" s="1">
         <v>1</v>
       </c>
       <c r="H15">
@@ -1519,24 +2116,24 @@
       <c r="L15">
         <v>-1</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="2">
         <v>2005</v>
       </c>
       <c r="N15">
         <v>-1</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="2">
         <v>2002</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="2">
         <v>2002</v>
       </c>
       <c r="Q15">
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G16" s="4">
+    <row r="16" spans="7:17">
+      <c r="G16" s="1">
         <v>2</v>
       </c>
       <c r="H16">
@@ -1554,7 +2151,7 @@
       <c r="L16">
         <v>-1</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="2">
         <v>-1</v>
       </c>
       <c r="N16">
@@ -1570,8 +2167,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G17" s="4">
+    <row r="17" spans="7:17">
+      <c r="G17" s="1">
         <v>3</v>
       </c>
       <c r="H17">
@@ -1605,14 +2202,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G18" s="4">
+    <row r="18" spans="7:17">
+      <c r="G18" s="1">
         <v>4</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>2001</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>-1</v>
       </c>
       <c r="J18">
@@ -1640,14 +2237,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G19" s="4">
+    <row r="19" spans="7:17">
+      <c r="G19" s="1">
         <v>5</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>2006</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>2005</v>
       </c>
       <c r="J19">
@@ -1675,8 +2272,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G20" s="4">
+    <row r="20" spans="7:17">
+      <c r="G20" s="1">
         <v>6</v>
       </c>
       <c r="H20">
@@ -1710,8 +2307,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G21" s="4">
+    <row r="21" spans="7:17">
+      <c r="G21" s="1">
         <v>7</v>
       </c>
       <c r="H21">
@@ -1741,12 +2338,12 @@
       <c r="P21">
         <v>-1</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="2">
         <v>2007</v>
       </c>
     </row>
-    <row r="22" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G22" s="4">
+    <row r="22" spans="7:17">
+      <c r="G22" s="1">
         <v>8</v>
       </c>
       <c r="H22">
@@ -1755,7 +2352,7 @@
       <c r="I22">
         <v>-1</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>2003</v>
       </c>
       <c r="K22">
@@ -1767,7 +2364,7 @@
       <c r="M22">
         <v>-1</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="2">
         <v>2003</v>
       </c>
       <c r="O22">
@@ -1776,12 +2373,12 @@
       <c r="P22">
         <v>-1</v>
       </c>
-      <c r="Q22" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G23" s="4">
+      <c r="Q22" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="7:17">
+      <c r="G23" s="1">
         <v>9</v>
       </c>
       <c r="H23">
@@ -1790,7 +2387,7 @@
       <c r="I23">
         <v>-1</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <v>2004</v>
       </c>
       <c r="K23">
@@ -1808,16 +2405,16 @@
       <c r="O23">
         <v>-1</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="2">
         <v>2004</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="2">
         <v>2005</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/File/游戏逻辑.xlsx
+++ b/File/游戏逻辑.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
   <si>
     <t>游戏开始前</t>
   </si>
@@ -252,15 +252,6 @@
     <t>格子中可能放着不可见道具</t>
   </si>
   <si>
-    <t>1001-2000</t>
-  </si>
-  <si>
-    <t>站着玩家的格子，数值为角色Id</t>
-  </si>
-  <si>
-    <t>格子中站着人</t>
-  </si>
-  <si>
     <t>2001-3000</t>
   </si>
   <si>
@@ -276,7 +267,7 @@
     <t>格子不可变</t>
   </si>
   <si>
-    <t>3001-4000</t>
+    <t>10001-</t>
   </si>
   <si>
     <t>放出来会爆炸的泡泡</t>
@@ -467,7 +458,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,12 +474,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,145 +788,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -949,9 +934,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1281,8 +1266,8 @@
   <sheetPr/>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1559,7 +1544,7 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1661,16 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
+    <row r="3" spans="4:17">
       <c r="D3" s="3"/>
       <c r="G3" s="1">
         <v>1</v>
@@ -1708,13 +1684,13 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D4" s="4"/>
       <c r="G4" s="1">
@@ -1756,10 +1732,10 @@
         <v>9999</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D5" s="5"/>
       <c r="G5" s="1">
@@ -1775,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="3">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1798,10 +1774,10 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
@@ -1822,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <v>1002</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1874,7 +1850,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G8" s="1">
         <v>6</v>
@@ -1912,10 +1888,10 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G9" s="1">
         <v>7</v>
@@ -1956,7 +1932,7 @@
         <v>-1</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G10" s="1">
         <v>8</v>
